--- a/Tesis/Modelo.xlsx
+++ b/Tesis/Modelo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabri\Documents\GitHub\MiM_Analytics\Tesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabri\Documents\GitHub\MiM_Analytics_Tesis\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC58740-2A2E-46AE-A907-4C0CE0E6EB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4630C4B-C74B-46A6-A16C-2D187C4CBA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -791,16 +791,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -829,6 +819,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5282,17 +5282,17 @@
     <dataField name="Standings%" fld="20" subtotal="average" baseField="4" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="10">
+    <format dxfId="9">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="7">
@@ -5307,10 +5307,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="6">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -5411,23 +5411,23 @@
     <dataField name="Bookmakers" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="5">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="3">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="2">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5742,9 +5742,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6350,7 +6350,7 @@
       <c r="A34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="23" t="s">
         <v>54</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -6367,7 +6367,7 @@
       <c r="C35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="23" t="s">
         <v>70</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -7524,7 +7524,7 @@
     </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="B6:H6 B9:H9 B11:H11 B14:H14 B17:H17 B20:H20 B23:H23 B27:H27 B30:H30 B34:H34">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7536,7 +7536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBC64BE-0D19-45E8-84B3-6ADF9B5EFA48}">
   <dimension ref="A1:U189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D168" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Tesis/Modelo.xlsx
+++ b/Tesis/Modelo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabri\Documents\GitHub\MiM_Analytics_Tesis\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E997E99-B679-473A-AF7C-4393F248B209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F030A8C-591D-4A75-A082-4564C9D374B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -1951,7 +1951,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1985,6 +1985,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEAECF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2119,7 +2125,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2234,19 +2240,31 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2258,17 +2276,8 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2277,16 +2286,6 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -2331,6 +2330,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -16005,17 +16014,17 @@
     <dataField name="Standings%" fld="20" subtotal="average" baseField="4" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="15">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="7">
@@ -16030,10 +16039,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="11">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -16182,10 +16191,10 @@
     <dataField name="Share" fld="7" showDataAs="percentOfCol" baseField="1" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="10">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="8">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16194,10 +16203,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="7">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -16207,7 +16216,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -16289,23 +16298,23 @@
     <dataField name="Bookmakers" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="5">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="3">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="2">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -16625,15 +16634,15 @@
       <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="39.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="68.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="39.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="68.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -16653,7 +16662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -16667,7 +16676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -16675,7 +16684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -16683,7 +16692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -16694,7 +16703,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -16702,7 +16711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -16722,7 +16731,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -16742,7 +16751,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -16762,7 +16771,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -16782,7 +16791,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -16802,7 +16811,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -16822,7 +16831,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -16842,7 +16851,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -16862,7 +16871,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -16882,7 +16891,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -16902,7 +16911,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -16922,7 +16931,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -16942,7 +16951,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -16962,7 +16971,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -16982,7 +16991,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -17002,7 +17011,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -17022,7 +17031,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -17042,7 +17051,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -17062,7 +17071,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -17082,7 +17091,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -17102,7 +17111,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
@@ -17122,7 +17131,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -17142,7 +17151,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -17162,7 +17171,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -17182,7 +17191,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -17202,7 +17211,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
@@ -17213,7 +17222,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>51</v>
       </c>
@@ -17224,7 +17233,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>53</v>
       </c>
@@ -17238,7 +17247,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
@@ -17252,7 +17261,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>78</v>
       </c>
@@ -17266,7 +17275,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>78</v>
       </c>
@@ -17277,7 +17286,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>57</v>
       </c>
@@ -17288,7 +17297,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>57</v>
       </c>
@@ -17299,7 +17308,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>57</v>
       </c>
@@ -17310,7 +17319,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
@@ -17321,7 +17330,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -17332,7 +17341,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>62</v>
       </c>
@@ -17343,7 +17352,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>62</v>
       </c>
@@ -17354,7 +17363,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>62</v>
       </c>
@@ -17365,7 +17374,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -17376,7 +17385,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>62</v>
       </c>
@@ -17387,7 +17396,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>62</v>
       </c>
@@ -17398,7 +17407,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>74</v>
       </c>
@@ -17406,7 +17415,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>74</v>
       </c>
@@ -17414,7 +17423,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>74</v>
       </c>
@@ -17422,7 +17431,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>74</v>
       </c>
@@ -17430,7 +17439,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>82</v>
       </c>
@@ -17438,7 +17447,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>82</v>
       </c>
@@ -17446,7 +17455,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>138</v>
       </c>
@@ -17454,7 +17463,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>138</v>
       </c>
@@ -17478,19 +17487,19 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>157</v>
       </c>
@@ -17516,7 +17525,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>156</v>
       </c>
@@ -17542,7 +17551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>155</v>
       </c>
@@ -17568,7 +17577,7 @@
         <v>3.1087757163091073E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>98</v>
       </c>
@@ -17594,7 +17603,7 @@
         <v>3.7870540544129125E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>104</v>
       </c>
@@ -17620,7 +17629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>96</v>
       </c>
@@ -17646,7 +17655,7 @@
         <v>5.951084942648862E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>109</v>
       </c>
@@ -17672,7 +17681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>96</v>
       </c>
@@ -17698,7 +17707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>110</v>
       </c>
@@ -17724,7 +17733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>111</v>
       </c>
@@ -17750,7 +17759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>112</v>
       </c>
@@ -17776,7 +17785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>115</v>
       </c>
@@ -17802,7 +17811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>116</v>
       </c>
@@ -17828,7 +17837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>96</v>
       </c>
@@ -17854,7 +17863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>121</v>
       </c>
@@ -17880,7 +17889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>119</v>
       </c>
@@ -17906,7 +17915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>116</v>
       </c>
@@ -17932,7 +17941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>123</v>
       </c>
@@ -17958,7 +17967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>111</v>
       </c>
@@ -17984,7 +17993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>112</v>
       </c>
@@ -18010,7 +18019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>127</v>
       </c>
@@ -18036,7 +18045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>128</v>
       </c>
@@ -18062,7 +18071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>129</v>
       </c>
@@ -18088,7 +18097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>118</v>
       </c>
@@ -18114,7 +18123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>124</v>
       </c>
@@ -18140,7 +18149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>96</v>
       </c>
@@ -18166,7 +18175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>118</v>
       </c>
@@ -18192,7 +18201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>130</v>
       </c>
@@ -18218,7 +18227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>128</v>
       </c>
@@ -18244,7 +18253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>129</v>
       </c>
@@ -18270,7 +18279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>118</v>
       </c>
@@ -18296,7 +18305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>132</v>
       </c>
@@ -18322,7 +18331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>96</v>
       </c>
@@ -18348,7 +18357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>118</v>
       </c>
@@ -18374,7 +18383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>150</v>
       </c>
@@ -18402,7 +18411,7 @@
     </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="B6:H6 B9:H9 B11:H11 B14:H14 B17:H17 B20:H20 B23:H23 B27:H27 B30:H30 B34:H34">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18415,24 +18424,24 @@
   <dimension ref="A1:V249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E190" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E220" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D212" sqref="D212:D214"/>
+      <selection pane="bottomRight" activeCell="E229" sqref="E229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="4"/>
-    <col min="2" max="2" width="12.33203125" style="4" customWidth="1"/>
-    <col min="3" max="4" width="19.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="37.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="19.88671875" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="12.28515625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="19.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="19.85546875" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>176</v>
       </c>
@@ -18500,7 +18509,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>175</v>
       </c>
@@ -18575,7 +18584,7 @@
         <v>6.4102564102564097E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>175</v>
       </c>
@@ -18650,7 +18659,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>175</v>
       </c>
@@ -18725,7 +18734,7 @@
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>175</v>
       </c>
@@ -18800,7 +18809,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>175</v>
       </c>
@@ -18875,7 +18884,7 @@
         <v>8.6956521739130432E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>175</v>
       </c>
@@ -18950,7 +18959,7 @@
         <v>4.4776119402985072E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>175</v>
       </c>
@@ -19025,7 +19034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>175</v>
       </c>
@@ -19100,7 +19109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>175</v>
       </c>
@@ -19175,7 +19184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>175</v>
       </c>
@@ -19250,7 +19259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>175</v>
       </c>
@@ -19325,7 +19334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>175</v>
       </c>
@@ -19379,7 +19388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>175</v>
       </c>
@@ -19433,7 +19442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>175</v>
       </c>
@@ -19490,7 +19499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>175</v>
       </c>
@@ -19553,7 +19562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>175</v>
       </c>
@@ -19610,7 +19619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>175</v>
       </c>
@@ -19664,7 +19673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>175</v>
       </c>
@@ -19718,7 +19727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>175</v>
       </c>
@@ -19772,7 +19781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>175</v>
       </c>
@@ -19832,7 +19841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>175</v>
       </c>
@@ -19895,7 +19904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>175</v>
       </c>
@@ -19958,7 +19967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>175</v>
       </c>
@@ -20033,7 +20042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>175</v>
       </c>
@@ -20108,7 +20117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>175</v>
       </c>
@@ -20183,7 +20192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>175</v>
       </c>
@@ -20258,7 +20267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>175</v>
       </c>
@@ -20333,7 +20342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>175</v>
       </c>
@@ -20408,7 +20417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>175</v>
       </c>
@@ -20483,7 +20492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>175</v>
       </c>
@@ -20537,7 +20546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>175</v>
       </c>
@@ -20591,7 +20600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>175</v>
       </c>
@@ -20654,7 +20663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>175</v>
       </c>
@@ -20714,7 +20723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>175</v>
       </c>
@@ -20786,7 +20795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>175</v>
       </c>
@@ -20858,7 +20867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>175</v>
       </c>
@@ -20930,7 +20939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>175</v>
       </c>
@@ -20984,7 +20993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>175</v>
       </c>
@@ -21038,7 +21047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>175</v>
       </c>
@@ -21092,7 +21101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>175</v>
       </c>
@@ -21146,7 +21155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>175</v>
       </c>
@@ -21200,7 +21209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>175</v>
       </c>
@@ -21254,7 +21263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>175</v>
       </c>
@@ -21323,7 +21332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>175</v>
       </c>
@@ -21392,7 +21401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>175</v>
       </c>
@@ -21461,7 +21470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>175</v>
       </c>
@@ -21530,7 +21539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>175</v>
       </c>
@@ -21590,7 +21599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>175</v>
       </c>
@@ -21650,7 +21659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>175</v>
       </c>
@@ -21710,7 +21719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>175</v>
       </c>
@@ -21764,7 +21773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>175</v>
       </c>
@@ -21818,7 +21827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>175</v>
       </c>
@@ -21893,7 +21902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>175</v>
       </c>
@@ -21968,7 +21977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
         <v>175</v>
       </c>
@@ -22043,7 +22052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
         <v>175</v>
       </c>
@@ -22118,7 +22127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>175</v>
       </c>
@@ -22181,7 +22190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
         <v>175</v>
       </c>
@@ -22241,7 +22250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
         <v>175</v>
       </c>
@@ -22301,7 +22310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>175</v>
       </c>
@@ -22361,7 +22370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>175</v>
       </c>
@@ -22421,7 +22430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
         <v>175</v>
       </c>
@@ -22481,7 +22490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
         <v>175</v>
       </c>
@@ -22535,7 +22544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
         <v>175</v>
       </c>
@@ -22589,7 +22598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
         <v>175</v>
       </c>
@@ -22643,7 +22652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
         <v>175</v>
       </c>
@@ -22703,7 +22712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
         <v>175</v>
       </c>
@@ -22763,7 +22772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
         <v>175</v>
       </c>
@@ -22820,7 +22829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>175</v>
       </c>
@@ -22880,7 +22889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>175</v>
       </c>
@@ -22937,7 +22946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>175</v>
       </c>
@@ -23000,7 +23009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>175</v>
       </c>
@@ -23069,7 +23078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
         <v>175</v>
       </c>
@@ -23138,7 +23147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>175</v>
       </c>
@@ -23207,7 +23216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
         <v>175</v>
       </c>
@@ -23264,7 +23273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
         <v>175</v>
       </c>
@@ -23321,7 +23330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
         <v>175</v>
       </c>
@@ -23378,7 +23387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
         <v>175</v>
       </c>
@@ -23435,7 +23444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="24" t="s">
         <v>175</v>
       </c>
@@ -23492,7 +23501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
         <v>175</v>
       </c>
@@ -23549,7 +23558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
         <v>175</v>
       </c>
@@ -23606,7 +23615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
         <v>175</v>
       </c>
@@ -23663,7 +23672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="24" t="s">
         <v>175</v>
       </c>
@@ -23720,7 +23729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="24" t="s">
         <v>175</v>
       </c>
@@ -23783,7 +23792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="24" t="s">
         <v>175</v>
       </c>
@@ -23855,7 +23864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="24" t="s">
         <v>175</v>
       </c>
@@ -23927,7 +23936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="24" t="s">
         <v>175</v>
       </c>
@@ -23999,7 +24008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="24" t="s">
         <v>175</v>
       </c>
@@ -24071,7 +24080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="24" t="s">
         <v>175</v>
       </c>
@@ -24131,7 +24140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="24" t="s">
         <v>175</v>
       </c>
@@ -24191,7 +24200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="24" t="s">
         <v>175</v>
       </c>
@@ -24251,7 +24260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="24" t="s">
         <v>175</v>
       </c>
@@ -24311,7 +24320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="24" t="s">
         <v>175</v>
       </c>
@@ -24371,7 +24380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="24" t="s">
         <v>175</v>
       </c>
@@ -24425,7 +24434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="24" t="s">
         <v>175</v>
       </c>
@@ -24479,7 +24488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="24" t="s">
         <v>175</v>
       </c>
@@ -24533,7 +24542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="24" t="s">
         <v>175</v>
       </c>
@@ -24587,7 +24596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="24" t="s">
         <v>175</v>
       </c>
@@ -24641,7 +24650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="24" t="s">
         <v>175</v>
       </c>
@@ -24695,7 +24704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="24" t="s">
         <v>175</v>
       </c>
@@ -24749,7 +24758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="24" t="s">
         <v>175</v>
       </c>
@@ -24803,7 +24812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="24" t="s">
         <v>175</v>
       </c>
@@ -24857,7 +24866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="24" t="s">
         <v>175</v>
       </c>
@@ -24911,7 +24920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="24" t="s">
         <v>175</v>
       </c>
@@ -24965,7 +24974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="24" t="s">
         <v>175</v>
       </c>
@@ -25019,7 +25028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
         <v>175</v>
       </c>
@@ -25073,7 +25082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="24" t="s">
         <v>175</v>
       </c>
@@ -25133,7 +25142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="24" t="s">
         <v>175</v>
       </c>
@@ -25193,7 +25202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="24" t="s">
         <v>175</v>
       </c>
@@ -25253,7 +25262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="24" t="s">
         <v>175</v>
       </c>
@@ -25316,7 +25325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="24" t="s">
         <v>175</v>
       </c>
@@ -25379,7 +25388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="24" t="s">
         <v>175</v>
       </c>
@@ -25436,7 +25445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" s="24" t="s">
         <v>175</v>
       </c>
@@ -25493,7 +25502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="24" t="s">
         <v>175</v>
       </c>
@@ -25550,7 +25559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="24" t="s">
         <v>175</v>
       </c>
@@ -25607,7 +25616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" s="24" t="s">
         <v>175</v>
       </c>
@@ -25664,7 +25673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="24" t="s">
         <v>175</v>
       </c>
@@ -25724,7 +25733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="24" t="s">
         <v>175</v>
       </c>
@@ -25784,7 +25793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="24" t="s">
         <v>175</v>
       </c>
@@ -25844,7 +25853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="24" t="s">
         <v>175</v>
       </c>
@@ -25907,7 +25916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="24" t="s">
         <v>175</v>
       </c>
@@ -25970,7 +25979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="24" t="s">
         <v>175</v>
       </c>
@@ -26024,7 +26033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="24" t="s">
         <v>175</v>
       </c>
@@ -26084,7 +26093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="24" t="s">
         <v>175</v>
       </c>
@@ -26144,7 +26153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="24" t="s">
         <v>175</v>
       </c>
@@ -26204,7 +26213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" s="24" t="s">
         <v>175</v>
       </c>
@@ -26264,7 +26273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" s="24" t="s">
         <v>175</v>
       </c>
@@ -26324,7 +26333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" s="24" t="s">
         <v>175</v>
       </c>
@@ -26387,7 +26396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" s="24" t="s">
         <v>175</v>
       </c>
@@ -26450,7 +26459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" s="24" t="s">
         <v>175</v>
       </c>
@@ -26513,7 +26522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" s="24" t="s">
         <v>175</v>
       </c>
@@ -26576,7 +26585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" s="24" t="s">
         <v>175</v>
       </c>
@@ -26633,7 +26642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" s="24" t="s">
         <v>175</v>
       </c>
@@ -26693,7 +26702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" s="24" t="s">
         <v>175</v>
       </c>
@@ -26753,7 +26762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" s="24" t="s">
         <v>175</v>
       </c>
@@ -26813,7 +26822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" s="24" t="s">
         <v>175</v>
       </c>
@@ -26873,7 +26882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" s="24" t="s">
         <v>175</v>
       </c>
@@ -26933,7 +26942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" s="24" t="s">
         <v>175</v>
       </c>
@@ -26993,7 +27002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" s="24" t="s">
         <v>175</v>
       </c>
@@ -27053,7 +27062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140" s="24" t="s">
         <v>175</v>
       </c>
@@ -27113,7 +27122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141" s="24" t="s">
         <v>175</v>
       </c>
@@ -27173,7 +27182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142" s="24" t="s">
         <v>175</v>
       </c>
@@ -27233,7 +27242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143" s="24" t="s">
         <v>175</v>
       </c>
@@ -27293,7 +27302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144" s="24" t="s">
         <v>175</v>
       </c>
@@ -27353,7 +27362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145" s="24" t="s">
         <v>175</v>
       </c>
@@ -27413,7 +27422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146" s="24" t="s">
         <v>175</v>
       </c>
@@ -27476,7 +27485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147" s="24" t="s">
         <v>175</v>
       </c>
@@ -27539,7 +27548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148" s="24" t="s">
         <v>175</v>
       </c>
@@ -27602,7 +27611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149" s="24" t="s">
         <v>175</v>
       </c>
@@ -27671,7 +27680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A150" s="24" t="s">
         <v>175</v>
       </c>
@@ -27731,7 +27740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151" s="24" t="s">
         <v>175</v>
       </c>
@@ -27791,7 +27800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152" s="24" t="s">
         <v>175</v>
       </c>
@@ -27851,7 +27860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153" s="24" t="s">
         <v>175</v>
       </c>
@@ -27911,7 +27920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154" s="24" t="s">
         <v>175</v>
       </c>
@@ -27971,7 +27980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A155" s="24" t="s">
         <v>175</v>
       </c>
@@ -28031,7 +28040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A156" s="24" t="s">
         <v>175</v>
       </c>
@@ -28094,7 +28103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A157" s="24" t="s">
         <v>175</v>
       </c>
@@ -28157,7 +28166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A158" s="24" t="s">
         <v>175</v>
       </c>
@@ -28220,7 +28229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A159" s="24" t="s">
         <v>175</v>
       </c>
@@ -28277,7 +28286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A160" s="24" t="s">
         <v>175</v>
       </c>
@@ -28334,7 +28343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A161" s="24" t="s">
         <v>175</v>
       </c>
@@ -28391,7 +28400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A162" s="24" t="s">
         <v>175</v>
       </c>
@@ -28448,7 +28457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A163" s="24" t="s">
         <v>175</v>
       </c>
@@ -28505,7 +28514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A164" s="24" t="s">
         <v>175</v>
       </c>
@@ -28562,7 +28571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A165" s="24" t="s">
         <v>175</v>
       </c>
@@ -28619,7 +28628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A166" s="24" t="s">
         <v>175</v>
       </c>
@@ -28676,7 +28685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A167" s="24" t="s">
         <v>175</v>
       </c>
@@ -28733,7 +28742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A168" s="24" t="s">
         <v>175</v>
       </c>
@@ -28790,7 +28799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A169" s="24" t="s">
         <v>175</v>
       </c>
@@ -28862,7 +28871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A170" s="24" t="s">
         <v>175</v>
       </c>
@@ -28934,7 +28943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A171" s="24" t="s">
         <v>175</v>
       </c>
@@ -29006,7 +29015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A172" s="24" t="s">
         <v>175</v>
       </c>
@@ -29078,7 +29087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A173" s="24" t="s">
         <v>175</v>
       </c>
@@ -29150,7 +29159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A174" s="24" t="s">
         <v>175</v>
       </c>
@@ -29198,7 +29207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A175" s="24" t="s">
         <v>175</v>
       </c>
@@ -29270,7 +29279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="24" t="s">
         <v>175</v>
       </c>
@@ -29287,7 +29296,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="177" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="24" t="s">
         <v>175</v>
       </c>
@@ -29304,7 +29313,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="178" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="24" t="s">
         <v>175</v>
       </c>
@@ -29324,7 +29333,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="179" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="24" t="s">
         <v>175</v>
       </c>
@@ -29344,7 +29353,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="180" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="24" t="s">
         <v>175</v>
       </c>
@@ -29364,7 +29373,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="24" t="s">
         <v>175</v>
       </c>
@@ -29384,7 +29393,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="182" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="24" t="s">
         <v>175</v>
       </c>
@@ -29404,7 +29413,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="183" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="24" t="s">
         <v>175</v>
       </c>
@@ -29424,7 +29433,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="184" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="24" t="s">
         <v>175</v>
       </c>
@@ -29444,7 +29453,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="185" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="24" t="s">
         <v>175</v>
       </c>
@@ -29464,7 +29473,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="186" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="24" t="s">
         <v>175</v>
       </c>
@@ -29484,7 +29493,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="187" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="24" t="s">
         <v>175</v>
       </c>
@@ -29504,7 +29513,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="188" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="24" t="s">
         <v>175</v>
       </c>
@@ -29521,7 +29530,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="189" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="24" t="s">
         <v>175</v>
       </c>
@@ -29538,7 +29547,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>179</v>
       </c>
@@ -29555,7 +29564,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>179</v>
       </c>
@@ -29572,7 +29581,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>179</v>
       </c>
@@ -29589,7 +29598,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>179</v>
       </c>
@@ -29606,7 +29615,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>179</v>
       </c>
@@ -29623,7 +29632,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>179</v>
       </c>
@@ -29640,7 +29649,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>179</v>
       </c>
@@ -29657,7 +29666,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>179</v>
       </c>
@@ -29674,7 +29683,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>179</v>
       </c>
@@ -29691,7 +29700,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>179</v>
       </c>
@@ -29708,7 +29717,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>179</v>
       </c>
@@ -29725,7 +29734,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>179</v>
       </c>
@@ -29742,7 +29751,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>179</v>
       </c>
@@ -29759,7 +29768,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>179</v>
       </c>
@@ -29776,7 +29785,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>179</v>
       </c>
@@ -29793,7 +29802,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>179</v>
       </c>
@@ -29810,7 +29819,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>179</v>
       </c>
@@ -29827,7 +29836,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>179</v>
       </c>
@@ -29844,7 +29853,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>179</v>
       </c>
@@ -29861,7 +29870,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>179</v>
       </c>
@@ -29878,7 +29887,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>179</v>
       </c>
@@ -29895,7 +29904,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>179</v>
       </c>
@@ -29912,7 +29921,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>179</v>
       </c>
@@ -29929,7 +29938,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>179</v>
       </c>
@@ -29946,7 +29955,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>179</v>
       </c>
@@ -29963,7 +29972,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>179</v>
       </c>
@@ -29977,7 +29986,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>179</v>
       </c>
@@ -29991,7 +30000,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>179</v>
       </c>
@@ -30005,7 +30014,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>179</v>
       </c>
@@ -30019,7 +30028,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>179</v>
       </c>
@@ -30033,7 +30042,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>179</v>
       </c>
@@ -30047,7 +30056,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>179</v>
       </c>
@@ -30061,7 +30070,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>179</v>
       </c>
@@ -30075,7 +30084,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>179</v>
       </c>
@@ -30089,7 +30098,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>179</v>
       </c>
@@ -30103,7 +30112,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>179</v>
       </c>
@@ -30117,7 +30126,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>179</v>
       </c>
@@ -30131,7 +30140,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>179</v>
       </c>
@@ -30145,7 +30154,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>179</v>
       </c>
@@ -30159,21 +30168,21 @@
         <v>195</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="4" t="s">
+    <row r="229" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B229" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="C229" s="4">
+      <c r="C229" s="52">
         <v>88</v>
       </c>
-      <c r="E229" s="4" t="s">
+      <c r="E229" s="52" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>179</v>
       </c>
@@ -30187,7 +30196,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>179</v>
       </c>
@@ -30201,7 +30210,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>179</v>
       </c>
@@ -30215,21 +30224,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="4" t="s">
+    <row r="233" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B233" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="C233" s="4">
+      <c r="C233" s="52">
         <v>94</v>
       </c>
-      <c r="E233" s="4" t="s">
+      <c r="E233" s="52" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>179</v>
       </c>
@@ -30243,7 +30252,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>179</v>
       </c>
@@ -30257,7 +30266,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>179</v>
       </c>
@@ -30271,7 +30280,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>179</v>
       </c>
@@ -30285,21 +30294,21 @@
         <v>117</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="4" t="s">
+    <row r="238" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B238" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="C238" s="4">
+      <c r="C238" s="52">
         <v>144</v>
       </c>
-      <c r="E238" s="4" t="s">
+      <c r="E238" s="52" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>179</v>
       </c>
@@ -30313,7 +30322,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>179</v>
       </c>
@@ -30327,7 +30336,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>179</v>
       </c>
@@ -30341,7 +30350,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>179</v>
       </c>
@@ -30355,7 +30364,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>179</v>
       </c>
@@ -30369,7 +30378,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>179</v>
       </c>
@@ -30383,7 +30392,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>179</v>
       </c>
@@ -30397,7 +30406,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>179</v>
       </c>
@@ -30411,7 +30420,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>179</v>
       </c>
@@ -30425,7 +30434,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>179</v>
       </c>
@@ -30439,7 +30448,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>179</v>
       </c>
@@ -30466,18 +30475,18 @@
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>85</v>
       </c>
@@ -30512,7 +30521,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>224</v>
       </c>
@@ -30556,17 +30565,17 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>230</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="41">
         <v>2019</v>
       </c>
       <c r="E3" s="39">
@@ -30587,7 +30596,7 @@
       <c r="J3" s="39">
         <v>3.964</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="41" t="s">
         <v>232</v>
       </c>
       <c r="O3" s="8" t="s">
@@ -30600,20 +30609,20 @@
         <v>0.17025285760417214</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="44"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="42"/>
       <c r="O4" s="8" t="s">
         <v>238</v>
       </c>
@@ -30624,17 +30633,17 @@
         <v>0.4299558917261006</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>234</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>235</v>
       </c>
       <c r="E5" s="39">
@@ -30646,7 +30655,7 @@
       <c r="G5" s="39">
         <v>1.3120000000000001</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="43">
         <v>7707</v>
       </c>
       <c r="I5" s="39">
@@ -30655,7 +30664,7 @@
       <c r="J5" s="39">
         <v>5.8739999999999997</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="41" t="s">
         <v>236</v>
       </c>
       <c r="O5" s="8" t="s">
@@ -30668,20 +30677,20 @@
         <v>1.1622717635690092E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="44"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="42"/>
       <c r="O6" s="8" t="s">
         <v>262</v>
       </c>
@@ -30692,17 +30701,17 @@
         <v>3.4865734027229339E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>238</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="41" t="s">
         <v>241</v>
       </c>
       <c r="E7" s="39">
@@ -30714,7 +30723,7 @@
       <c r="G7" s="39">
         <v>380</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="44">
         <v>5864</v>
       </c>
       <c r="I7" s="39" t="s">
@@ -30723,7 +30732,7 @@
       <c r="J7" s="39">
         <v>15.432</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="K7" s="41" t="s">
         <v>243</v>
       </c>
       <c r="O7" s="8" t="s">
@@ -30736,20 +30745,20 @@
         <v>0.13854497120928272</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="44"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="42"/>
       <c r="O8" s="8" t="s">
         <v>234</v>
       </c>
@@ -30760,17 +30769,17 @@
         <v>0.10730030030393226</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="41" t="s">
         <v>245</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="41" t="s">
         <v>241</v>
       </c>
       <c r="E9" s="39">
@@ -30791,7 +30800,7 @@
       <c r="J9" s="39">
         <v>3.3650000000000002</v>
       </c>
-      <c r="K9" s="42" t="s">
+      <c r="K9" s="41" t="s">
         <v>246</v>
       </c>
       <c r="O9" s="8" t="s">
@@ -30804,20 +30813,20 @@
         <v>1.7294990862681404E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="44"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="42"/>
       <c r="O10" s="8" t="s">
         <v>461</v>
       </c>
@@ -30828,7 +30837,7 @@
         <v>1.2699119164905927E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>247</v>
       </c>
@@ -30872,7 +30881,7 @@
         <v>7.2409168038373134E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>250</v>
       </c>
@@ -30916,7 +30925,7 @@
         <v>3.6283197614016935E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>253</v>
       </c>
@@ -30960,7 +30969,7 @@
         <v>1.0800298489772374E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>256</v>
       </c>
@@ -31004,7 +31013,7 @@
         <v>4.547494100956789E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>261</v>
       </c>
@@ -31048,8 +31057,8 @@
         <v>1.0028675820514281E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
         <v>266</v>
       </c>
       <c r="B16" s="39" t="s">
@@ -31058,7 +31067,7 @@
       <c r="C16" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="41" t="s">
         <v>235</v>
       </c>
       <c r="E16" s="39">
@@ -31070,7 +31079,7 @@
       <c r="G16" s="39">
         <v>380</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="44">
         <v>1892</v>
       </c>
       <c r="I16" s="39" t="s">
@@ -31079,7 +31088,7 @@
       <c r="J16" s="39">
         <v>4.9790000000000001</v>
       </c>
-      <c r="K16" s="42" t="s">
+      <c r="K16" s="41" t="s">
         <v>243</v>
       </c>
       <c r="O16" s="8" t="s">
@@ -31092,20 +31101,20 @@
         <v>1.2499561578028834E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="44"/>
-      <c r="B17" s="41"/>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="44"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="42"/>
       <c r="O17" s="8" t="s">
         <v>559</v>
       </c>
@@ -31116,7 +31125,7 @@
         <v>2.6486734258232358E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>270</v>
       </c>
@@ -31158,7 +31167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>274</v>
       </c>
@@ -31202,8 +31211,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
         <v>278</v>
       </c>
       <c r="B20" s="39" t="s">
@@ -31212,13 +31221,13 @@
       <c r="C20" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="41">
         <v>2019</v>
       </c>
       <c r="E20" s="39">
         <v>1</v>
       </c>
-      <c r="F20" s="42" t="s">
+      <c r="F20" s="41" t="s">
         <v>279</v>
       </c>
       <c r="G20" s="39">
@@ -31233,26 +31242,26 @@
       <c r="J20" s="39">
         <v>2.0430000000000001</v>
       </c>
-      <c r="K20" s="48" t="s">
+      <c r="K20" s="45" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="44"/>
-      <c r="B21" s="41"/>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="49"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="42"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="46"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
         <v>281</v>
       </c>
@@ -31287,7 +31296,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>286</v>
       </c>
@@ -31322,7 +31331,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>291</v>
       </c>
@@ -31357,8 +31366,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
         <v>294</v>
       </c>
       <c r="B25" s="39" t="s">
@@ -31367,7 +31376,7 @@
       <c r="C25" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="41" t="s">
         <v>241</v>
       </c>
       <c r="E25" s="39">
@@ -31379,7 +31388,7 @@
       <c r="G25" s="39">
         <v>557</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="41">
         <v>885.7</v>
       </c>
       <c r="I25" s="39" t="s">
@@ -31388,26 +31397,26 @@
       <c r="J25" s="39">
         <v>1.59</v>
       </c>
-      <c r="K25" s="42" t="s">
+      <c r="K25" s="41" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="44"/>
-      <c r="B26" s="41"/>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="42"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="44"/>
-    </row>
-    <row r="27" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="42"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="42"/>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>298</v>
       </c>
@@ -31442,7 +31451,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
         <v>301</v>
       </c>
@@ -31477,8 +31486,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="41" t="s">
         <v>303</v>
       </c>
       <c r="B29" s="39" t="s">
@@ -31487,13 +31496,13 @@
       <c r="C29" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="41" t="s">
         <v>310</v>
       </c>
       <c r="E29" s="39">
         <v>1</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="41" t="s">
         <v>311</v>
       </c>
       <c r="G29" s="39">
@@ -31508,116 +31517,116 @@
       <c r="J29" s="39">
         <v>869</v>
       </c>
-      <c r="K29" s="42" t="s">
+      <c r="K29" s="41" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="40"/>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="43"/>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="40"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="47"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="47"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="43"/>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="40"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="47"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="47"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="43"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43"/>
-      <c r="B33" s="40"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="47"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="43"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
-      <c r="B34" s="40"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="47"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="43"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43"/>
-      <c r="B35" s="40"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="47"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="47"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="43"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="44"/>
-      <c r="B36" s="41"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="47"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="44"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="42"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="42"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
         <v>314</v>
       </c>
@@ -31652,7 +31661,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
         <v>317</v>
       </c>
@@ -31687,7 +31696,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
         <v>320</v>
       </c>
@@ -31722,7 +31731,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
         <v>196</v>
       </c>
@@ -31757,7 +31766,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
         <v>325</v>
       </c>
@@ -31792,7 +31801,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27" t="s">
         <v>199</v>
       </c>
@@ -31827,7 +31836,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
         <v>331</v>
       </c>
@@ -31862,7 +31871,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
         <v>171</v>
       </c>
@@ -31897,7 +31906,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="27" t="s">
         <v>338</v>
       </c>
@@ -31932,7 +31941,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
         <v>341</v>
       </c>
@@ -31967,7 +31976,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
         <v>345</v>
       </c>
@@ -32002,7 +32011,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="27" t="s">
         <v>348</v>
       </c>
@@ -32037,7 +32046,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
         <v>352</v>
       </c>
@@ -32072,17 +32081,17 @@
         <v>354</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="42" t="s">
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="41" t="s">
         <v>355</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="41" t="s">
         <v>356</v>
       </c>
       <c r="C50" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="D50" s="42">
+      <c r="D50" s="41">
         <v>2019</v>
       </c>
       <c r="E50" s="39">
@@ -32103,26 +32112,26 @@
       <c r="J50" s="39">
         <v>1.5720000000000001</v>
       </c>
-      <c r="K50" s="42" t="s">
+      <c r="K50" s="41" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="44"/>
-      <c r="B51" s="44"/>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
       <c r="C51" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="D51" s="44"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="44"/>
-    </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D51" s="42"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="42"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="27" t="s">
         <v>360</v>
       </c>
@@ -32157,7 +32166,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27" t="s">
         <v>364</v>
       </c>
@@ -32192,7 +32201,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
         <v>368</v>
       </c>
@@ -32227,7 +32236,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
         <v>371</v>
       </c>
@@ -32262,7 +32271,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
         <v>375</v>
       </c>
@@ -32297,7 +32306,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="27" t="s">
         <v>378</v>
       </c>
@@ -32332,7 +32341,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
         <v>382</v>
       </c>
@@ -32367,7 +32376,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="27" t="s">
         <v>384</v>
       </c>
@@ -32402,8 +32411,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="42" t="s">
+    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="41" t="s">
         <v>386</v>
       </c>
       <c r="B60" s="39" t="s">
@@ -32412,7 +32421,7 @@
       <c r="C60" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="D60" s="42" t="s">
+      <c r="D60" s="41" t="s">
         <v>241</v>
       </c>
       <c r="E60" s="39">
@@ -32433,26 +32442,26 @@
       <c r="J60" s="39">
         <v>958</v>
       </c>
-      <c r="K60" s="42" t="s">
+      <c r="K60" s="41" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="44"/>
-      <c r="B61" s="41"/>
+    <row r="61" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="42"/>
+      <c r="B61" s="40"/>
       <c r="C61" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="D61" s="44"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="44"/>
-    </row>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D61" s="42"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="42"/>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="27" t="s">
         <v>390</v>
       </c>
@@ -32487,7 +32496,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="27" t="s">
         <v>393</v>
       </c>
@@ -32522,8 +32531,8 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="42" t="s">
+    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="41" t="s">
         <v>396</v>
       </c>
       <c r="B64" s="39" t="s">
@@ -32532,7 +32541,7 @@
       <c r="C64" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="D64" s="42" t="s">
+      <c r="D64" s="41" t="s">
         <v>235</v>
       </c>
       <c r="E64" s="39">
@@ -32544,7 +32553,7 @@
       <c r="G64" s="39">
         <v>557</v>
       </c>
-      <c r="H64" s="42">
+      <c r="H64" s="41">
         <v>215.5</v>
       </c>
       <c r="I64" s="39">
@@ -32553,26 +32562,26 @@
       <c r="J64" s="39">
         <v>387</v>
       </c>
-      <c r="K64" s="42" t="s">
+      <c r="K64" s="41" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="44"/>
-      <c r="B65" s="41"/>
+    <row r="65" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="42"/>
+      <c r="B65" s="40"/>
       <c r="C65" s="33" t="s">
         <v>397</v>
       </c>
-      <c r="D65" s="44"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="44"/>
-    </row>
-    <row r="66" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D65" s="42"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="42"/>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
         <v>398</v>
       </c>
@@ -32607,7 +32616,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
         <v>400</v>
       </c>
@@ -32642,7 +32651,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="27" t="s">
         <v>403</v>
       </c>
@@ -32677,7 +32686,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="27" t="s">
         <v>407</v>
       </c>
@@ -32712,7 +32721,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="27" t="s">
         <v>411</v>
       </c>
@@ -32747,7 +32756,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
         <v>415</v>
       </c>
@@ -32782,7 +32791,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
         <v>417</v>
       </c>
@@ -32817,7 +32826,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="27" t="s">
         <v>420</v>
       </c>
@@ -32852,7 +32861,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="27" t="s">
         <v>424</v>
       </c>
@@ -32887,7 +32896,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="27" t="s">
         <v>426</v>
       </c>
@@ -32922,7 +32931,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="27" t="s">
         <v>430</v>
       </c>
@@ -32957,7 +32966,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="27" t="s">
         <v>433</v>
       </c>
@@ -32992,7 +33001,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="27" t="s">
         <v>436</v>
       </c>
@@ -33027,7 +33036,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="27" t="s">
         <v>438</v>
       </c>
@@ -33062,7 +33071,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="27" t="s">
         <v>440</v>
       </c>
@@ -33097,7 +33106,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="27" t="s">
         <v>443</v>
       </c>
@@ -33132,7 +33141,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="27" t="s">
         <v>444</v>
       </c>
@@ -33167,7 +33176,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="27" t="s">
         <v>447</v>
       </c>
@@ -33202,7 +33211,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="27" t="s">
         <v>450</v>
       </c>
@@ -33237,7 +33246,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="27" t="s">
         <v>453</v>
       </c>
@@ -33272,7 +33281,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="27" t="s">
         <v>457</v>
       </c>
@@ -33307,7 +33316,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="27" t="s">
         <v>460</v>
       </c>
@@ -33342,8 +33351,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="42" t="s">
+    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="41" t="s">
         <v>463</v>
       </c>
       <c r="B88" s="39" t="s">
@@ -33352,7 +33361,7 @@
       <c r="C88" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="D88" s="42" t="s">
+      <c r="D88" s="41" t="s">
         <v>235</v>
       </c>
       <c r="E88" s="39">
@@ -33364,7 +33373,7 @@
       <c r="G88" s="39">
         <v>557</v>
       </c>
-      <c r="H88" s="42">
+      <c r="H88" s="41">
         <v>102.7</v>
       </c>
       <c r="I88" s="39" t="s">
@@ -33373,26 +33382,26 @@
       <c r="J88" s="39">
         <v>184</v>
       </c>
-      <c r="K88" s="42" t="s">
+      <c r="K88" s="41" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="44"/>
-      <c r="B89" s="41"/>
+    <row r="89" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="42"/>
+      <c r="B89" s="40"/>
       <c r="C89" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="D89" s="44"/>
-      <c r="E89" s="41"/>
-      <c r="F89" s="41"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="41"/>
-      <c r="J89" s="41"/>
-      <c r="K89" s="44"/>
-    </row>
-    <row r="90" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D89" s="42"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="42"/>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="27" t="s">
         <v>465</v>
       </c>
@@ -33427,7 +33436,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="27" t="s">
         <v>468</v>
       </c>
@@ -33462,8 +33471,8 @@
         <v>471</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="42" t="s">
+    <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="41" t="s">
         <v>472</v>
       </c>
       <c r="B92" s="39" t="s">
@@ -33472,7 +33481,7 @@
       <c r="C92" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="D92" s="42">
+      <c r="D92" s="41">
         <v>2018</v>
       </c>
       <c r="E92" s="39" t="s">
@@ -33493,26 +33502,26 @@
       <c r="J92" s="39">
         <v>740</v>
       </c>
-      <c r="K92" s="42" t="s">
+      <c r="K92" s="41" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="44"/>
-      <c r="B93" s="41"/>
+    <row r="93" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="42"/>
+      <c r="B93" s="40"/>
       <c r="C93" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="D93" s="44"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="41"/>
-      <c r="J93" s="41"/>
-      <c r="K93" s="44"/>
-    </row>
-    <row r="94" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D93" s="42"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="40"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="40"/>
+      <c r="J93" s="40"/>
+      <c r="K93" s="42"/>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="27" t="s">
         <v>475</v>
       </c>
@@ -33547,7 +33556,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="27" t="s">
         <v>478</v>
       </c>
@@ -33582,7 +33591,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="27" t="s">
         <v>480</v>
       </c>
@@ -33617,7 +33626,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="27" t="s">
         <v>483</v>
       </c>
@@ -33652,7 +33661,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="27" t="s">
         <v>486</v>
       </c>
@@ -33687,7 +33696,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="27" t="s">
         <v>489</v>
       </c>
@@ -33722,7 +33731,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="27" t="s">
         <v>492</v>
       </c>
@@ -33757,7 +33766,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="27" t="s">
         <v>494</v>
       </c>
@@ -33792,8 +33801,8 @@
         <v>496</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="42" t="s">
+    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="41" t="s">
         <v>497</v>
       </c>
       <c r="B102" s="39" t="s">
@@ -33802,7 +33811,7 @@
       <c r="C102" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="D102" s="42" t="s">
+      <c r="D102" s="41" t="s">
         <v>346</v>
       </c>
       <c r="E102" s="39">
@@ -33814,7 +33823,7 @@
       <c r="G102" s="39">
         <v>140</v>
       </c>
-      <c r="H102" s="42">
+      <c r="H102" s="41">
         <v>63</v>
       </c>
       <c r="I102" s="39" t="s">
@@ -33823,26 +33832,26 @@
       <c r="J102" s="39">
         <v>450</v>
       </c>
-      <c r="K102" s="42" t="s">
+      <c r="K102" s="41" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="44"/>
-      <c r="B103" s="41"/>
+    <row r="103" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="42"/>
+      <c r="B103" s="40"/>
       <c r="C103" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="D103" s="44"/>
-      <c r="E103" s="41"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="44"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41"/>
-      <c r="K103" s="44"/>
-    </row>
-    <row r="104" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D103" s="42"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="40"/>
+      <c r="J103" s="40"/>
+      <c r="K103" s="42"/>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="27" t="s">
         <v>197</v>
       </c>
@@ -33877,8 +33886,8 @@
         <v>501</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="42" t="s">
+    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="41" t="s">
         <v>502</v>
       </c>
       <c r="B105" s="39" t="s">
@@ -33887,7 +33896,7 @@
       <c r="C105" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="D105" s="42">
+      <c r="D105" s="41">
         <v>2015</v>
       </c>
       <c r="E105" s="39">
@@ -33908,26 +33917,26 @@
       <c r="J105" s="39">
         <v>308</v>
       </c>
-      <c r="K105" s="42" t="s">
+      <c r="K105" s="41" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="44"/>
-      <c r="B106" s="41"/>
+    <row r="106" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="42"/>
+      <c r="B106" s="40"/>
       <c r="C106" s="33" t="s">
         <v>503</v>
       </c>
-      <c r="D106" s="44"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-      <c r="I106" s="41"/>
-      <c r="J106" s="41"/>
-      <c r="K106" s="44"/>
-    </row>
-    <row r="107" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D106" s="42"/>
+      <c r="E106" s="40"/>
+      <c r="F106" s="40"/>
+      <c r="G106" s="40"/>
+      <c r="H106" s="40"/>
+      <c r="I106" s="40"/>
+      <c r="J106" s="40"/>
+      <c r="K106" s="42"/>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="27" t="s">
         <v>506</v>
       </c>
@@ -33962,7 +33971,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="27" t="s">
         <v>508</v>
       </c>
@@ -33997,7 +34006,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="27" t="s">
         <v>511</v>
       </c>
@@ -34032,7 +34041,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="27" t="s">
         <v>515</v>
       </c>
@@ -34067,7 +34076,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="27" t="s">
         <v>517</v>
       </c>
@@ -34102,7 +34111,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="27" t="s">
         <v>519</v>
       </c>
@@ -34137,7 +34146,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="27" t="s">
         <v>521</v>
       </c>
@@ -34172,7 +34181,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="27" t="s">
         <v>523</v>
       </c>
@@ -34207,7 +34216,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="27" t="s">
         <v>525</v>
       </c>
@@ -34242,7 +34251,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="27" t="s">
         <v>527</v>
       </c>
@@ -34277,7 +34286,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="27" t="s">
         <v>531</v>
       </c>
@@ -34312,7 +34321,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="27" t="s">
         <v>534</v>
       </c>
@@ -34347,7 +34356,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="27" t="s">
         <v>536</v>
       </c>
@@ -34382,8 +34391,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="42" t="s">
+    <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="41" t="s">
         <v>539</v>
       </c>
       <c r="B120" s="39" t="s">
@@ -34392,7 +34401,7 @@
       <c r="C120" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="D120" s="42" t="s">
+      <c r="D120" s="41" t="s">
         <v>310</v>
       </c>
       <c r="E120" s="39">
@@ -34413,26 +34422,26 @@
       <c r="J120" s="39">
         <v>102</v>
       </c>
-      <c r="K120" s="42" t="s">
+      <c r="K120" s="41" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="44"/>
-      <c r="B121" s="41"/>
+    <row r="121" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="42"/>
+      <c r="B121" s="40"/>
       <c r="C121" s="31" t="s">
         <v>540</v>
       </c>
-      <c r="D121" s="44"/>
-      <c r="E121" s="41"/>
-      <c r="F121" s="41"/>
-      <c r="G121" s="41"/>
-      <c r="H121" s="41"/>
-      <c r="I121" s="41"/>
-      <c r="J121" s="41"/>
-      <c r="K121" s="44"/>
-    </row>
-    <row r="122" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D121" s="42"/>
+      <c r="E121" s="40"/>
+      <c r="F121" s="40"/>
+      <c r="G121" s="40"/>
+      <c r="H121" s="40"/>
+      <c r="I121" s="40"/>
+      <c r="J121" s="40"/>
+      <c r="K121" s="42"/>
+    </row>
+    <row r="122" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="27" t="s">
         <v>543</v>
       </c>
@@ -34467,8 +34476,8 @@
         <v>546</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="45" t="s">
+    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="49" t="s">
         <v>547</v>
       </c>
       <c r="B123" s="39" t="s">
@@ -34477,7 +34486,7 @@
       <c r="C123" s="32" t="s">
         <v>548</v>
       </c>
-      <c r="D123" s="42" t="s">
+      <c r="D123" s="41" t="s">
         <v>346</v>
       </c>
       <c r="E123" s="39" t="s">
@@ -34498,71 +34507,71 @@
       <c r="J123" s="39">
         <v>176</v>
       </c>
-      <c r="K123" s="42" t="s">
+      <c r="K123" s="41" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="46"/>
-      <c r="B124" s="40"/>
+    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="50"/>
+      <c r="B124" s="48"/>
       <c r="C124" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="D124" s="43"/>
-      <c r="E124" s="40"/>
-      <c r="F124" s="40"/>
-      <c r="G124" s="40"/>
-      <c r="H124" s="40"/>
-      <c r="I124" s="40"/>
-      <c r="J124" s="40"/>
-      <c r="K124" s="43"/>
-    </row>
-    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="46"/>
-      <c r="B125" s="40"/>
+      <c r="D124" s="47"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
+      <c r="K124" s="47"/>
+    </row>
+    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="50"/>
+      <c r="B125" s="48"/>
       <c r="C125" s="34" t="s">
         <v>385</v>
       </c>
-      <c r="D125" s="43"/>
-      <c r="E125" s="40"/>
-      <c r="F125" s="40"/>
-      <c r="G125" s="40"/>
-      <c r="H125" s="40"/>
-      <c r="I125" s="40"/>
-      <c r="J125" s="40"/>
-      <c r="K125" s="43"/>
-    </row>
-    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="46"/>
-      <c r="B126" s="40"/>
+      <c r="D125" s="47"/>
+      <c r="E125" s="48"/>
+      <c r="F125" s="48"/>
+      <c r="G125" s="48"/>
+      <c r="H125" s="48"/>
+      <c r="I125" s="48"/>
+      <c r="J125" s="48"/>
+      <c r="K125" s="47"/>
+    </row>
+    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="50"/>
+      <c r="B126" s="48"/>
       <c r="C126" s="34" t="s">
         <v>454</v>
       </c>
-      <c r="D126" s="43"/>
-      <c r="E126" s="40"/>
-      <c r="F126" s="40"/>
-      <c r="G126" s="40"/>
-      <c r="H126" s="40"/>
-      <c r="I126" s="40"/>
-      <c r="J126" s="40"/>
-      <c r="K126" s="43"/>
-    </row>
-    <row r="127" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="47"/>
-      <c r="B127" s="41"/>
+      <c r="D126" s="47"/>
+      <c r="E126" s="48"/>
+      <c r="F126" s="48"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="48"/>
+      <c r="I126" s="48"/>
+      <c r="J126" s="48"/>
+      <c r="K126" s="47"/>
+    </row>
+    <row r="127" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="51"/>
+      <c r="B127" s="40"/>
       <c r="C127" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="D127" s="44"/>
-      <c r="E127" s="41"/>
-      <c r="F127" s="41"/>
-      <c r="G127" s="41"/>
-      <c r="H127" s="41"/>
-      <c r="I127" s="41"/>
-      <c r="J127" s="41"/>
-      <c r="K127" s="44"/>
-    </row>
-    <row r="128" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D127" s="42"/>
+      <c r="E127" s="40"/>
+      <c r="F127" s="40"/>
+      <c r="G127" s="40"/>
+      <c r="H127" s="40"/>
+      <c r="I127" s="40"/>
+      <c r="J127" s="40"/>
+      <c r="K127" s="42"/>
+    </row>
+    <row r="128" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="27" t="s">
         <v>551</v>
       </c>
@@ -34597,7 +34606,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="27" t="s">
         <v>554</v>
       </c>
@@ -34632,7 +34641,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="27" t="s">
         <v>555</v>
       </c>
@@ -34667,7 +34676,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="27" t="s">
         <v>558</v>
       </c>
@@ -34702,7 +34711,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="27" t="s">
         <v>562</v>
       </c>
@@ -34740,6 +34749,156 @@
   </sheetData>
   <autoFilter ref="A1:K132" xr:uid="{949F1CDD-98F9-4049-8F7E-E5CEF6821539}"/>
   <mergeCells count="170">
+    <mergeCell ref="J123:J127"/>
+    <mergeCell ref="K123:K127"/>
+    <mergeCell ref="J120:J121"/>
+    <mergeCell ref="K120:K121"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="B123:B127"/>
+    <mergeCell ref="D123:D127"/>
+    <mergeCell ref="E123:E127"/>
+    <mergeCell ref="F123:F127"/>
+    <mergeCell ref="G123:G127"/>
+    <mergeCell ref="H123:H127"/>
+    <mergeCell ref="I123:I127"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="D29:D36"/>
+    <mergeCell ref="E29:E36"/>
+    <mergeCell ref="F29:F36"/>
+    <mergeCell ref="G29:G36"/>
+    <mergeCell ref="H29:H36"/>
+    <mergeCell ref="I29:I36"/>
+    <mergeCell ref="J29:J36"/>
+    <mergeCell ref="K29:K36"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="A5:A6"/>
@@ -34760,156 +34919,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="D29:D36"/>
-    <mergeCell ref="E29:E36"/>
-    <mergeCell ref="F29:F36"/>
-    <mergeCell ref="G29:G36"/>
-    <mergeCell ref="H29:H36"/>
-    <mergeCell ref="I29:I36"/>
-    <mergeCell ref="J29:J36"/>
-    <mergeCell ref="K29:K36"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="K88:K89"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="J92:J93"/>
-    <mergeCell ref="K92:K93"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="K105:K106"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="J123:J127"/>
-    <mergeCell ref="K123:K127"/>
-    <mergeCell ref="J120:J121"/>
-    <mergeCell ref="K120:K121"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="B123:B127"/>
-    <mergeCell ref="D123:D127"/>
-    <mergeCell ref="E123:E127"/>
-    <mergeCell ref="F123:F127"/>
-    <mergeCell ref="G123:G127"/>
-    <mergeCell ref="H123:H127"/>
-    <mergeCell ref="I123:I127"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F1" r:id="rId2" location="cite_note-3" display="https://en.wikipedia.org/wiki/List_of_professional_sports_leagues_by_revenue - cite_note-3" xr:uid="{DB03DCCC-805E-4787-8D18-A1438D93FAA1}"/>
@@ -35393,19 +35402,19 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>148</v>
       </c>
@@ -35416,7 +35425,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>146</v>
       </c>
@@ -35428,7 +35437,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>146</v>
       </c>
@@ -35441,7 +35450,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>146</v>
       </c>
@@ -35454,7 +35463,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>136</v>
       </c>
@@ -35466,7 +35475,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>136</v>
       </c>
@@ -35478,7 +35487,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>136</v>
       </c>
@@ -35490,7 +35499,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>147</v>
       </c>
@@ -35502,7 +35511,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>147</v>
       </c>
@@ -35514,7 +35523,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>147</v>
       </c>
@@ -35526,10 +35535,10 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>153</v>
       </c>
@@ -35538,7 +35547,7 @@
         <v>0.69216061185468447</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>151</v>
       </c>
@@ -35549,7 +35558,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>148</v>
       </c>
@@ -35571,7 +35580,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>146</v>
       </c>
@@ -35596,7 +35605,7 @@
         <v>0.31021594684385384</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>136</v>
       </c>
@@ -35621,7 +35630,7 @@
         <v>0.26315789473684209</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>147</v>
       </c>
@@ -35646,7 +35655,7 @@
         <v>0.51019118344130199</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>150</v>
       </c>
@@ -35664,7 +35673,7 @@
       </c>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>154</v>
       </c>
@@ -35685,55 +35694,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D22"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
